--- a/CRISPR/oligos_for_sgRNA_constructs.xlsx
+++ b/CRISPR/oligos_for_sgRNA_constructs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="first round" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>GTTTTAGAGCTAGAAATAGCAA</t>
   </si>
@@ -473,20 +473,22 @@
   </si>
   <si>
     <t>fog2e3a</t>
+  </si>
+  <si>
+    <t>duplicated on chromosome 3</t>
+  </si>
+  <si>
+    <t>not present</t>
+  </si>
+  <si>
+    <t>perfect match in genome?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,107 +559,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -703,6 +727,17 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -748,6 +783,17 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1077,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G98"/>
+  <dimension ref="B3:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1480,16 +1526,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="18">
+    <row r="49" spans="2:8" ht="18">
       <c r="B49" s="2"/>
       <c r="F49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="18">
+    <row r="50" spans="2:8" ht="18">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:7" ht="18">
+    <row r="51" spans="2:8" ht="18">
       <c r="B51" s="2"/>
       <c r="C51" t="s">
         <v>52</v>
@@ -1507,22 +1553,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="18">
+    <row r="52" spans="2:8" ht="18">
       <c r="B52" s="2"/>
       <c r="F52" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="18">
+    <row r="53" spans="2:8" ht="18">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:7" ht="18">
+    <row r="54" spans="2:8" ht="18">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:7" ht="18">
+    <row r="55" spans="2:8" ht="18">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:7" ht="18">
+    <row r="56" spans="2:8" ht="18">
       <c r="B56" s="2"/>
       <c r="F56" s="1" t="s">
         <v>15</v>
@@ -1530,8 +1576,11 @@
       <c r="G56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" ht="18">
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="18">
       <c r="B57" s="2"/>
       <c r="F57" s="1" t="s">
         <v>16</v>
@@ -1539,8 +1588,11 @@
       <c r="G57" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" ht="18">
+      <c r="H57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="18">
       <c r="B58" s="2"/>
       <c r="F58" s="1" t="s">
         <v>17</v>
@@ -1548,8 +1600,11 @@
       <c r="G58" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" ht="18">
+      <c r="H58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="18">
       <c r="B59" s="2"/>
       <c r="F59" s="1" t="s">
         <v>20</v>
@@ -1557,8 +1612,11 @@
       <c r="G59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="18">
+      <c r="H59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="18">
       <c r="B60" s="2"/>
       <c r="F60" s="1" t="s">
         <v>23</v>
@@ -1566,8 +1624,11 @@
       <c r="G60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="18">
+      <c r="H60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="18">
       <c r="B61" s="2"/>
       <c r="F61" s="1" t="s">
         <v>29</v>
@@ -1575,8 +1636,11 @@
       <c r="G61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" ht="18">
+      <c r="H61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="18">
       <c r="B62" s="2"/>
       <c r="F62" s="1" t="s">
         <v>31</v>
@@ -1584,8 +1648,11 @@
       <c r="G62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" ht="18">
+      <c r="H62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="18">
       <c r="B63" s="2"/>
       <c r="F63" s="1" t="s">
         <v>40</v>
@@ -1593,8 +1660,11 @@
       <c r="G63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="18">
+      <c r="H63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="18">
       <c r="B64" s="2"/>
       <c r="F64" s="1" t="s">
         <v>42</v>
@@ -1602,8 +1672,11 @@
       <c r="G64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="18">
+      <c r="H64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="18">
       <c r="B65" s="2"/>
       <c r="F65" s="1" t="s">
         <v>44</v>
@@ -1611,8 +1684,11 @@
       <c r="G65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="18">
+      <c r="H65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="18">
       <c r="B66" s="2"/>
       <c r="F66" s="1" t="s">
         <v>47</v>
@@ -1620,8 +1696,11 @@
       <c r="G66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" ht="18">
+      <c r="H66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="18">
       <c r="B67" s="2"/>
       <c r="F67" s="1" t="s">
         <v>49</v>
@@ -1629,8 +1708,11 @@
       <c r="G67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" ht="18">
+      <c r="H67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="18">
       <c r="B68" s="2"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
@@ -1638,8 +1720,11 @@
       <c r="G68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="18">
+      <c r="H68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="18">
       <c r="B69" s="2"/>
       <c r="F69" s="1" t="s">
         <v>53</v>
@@ -1647,38 +1732,41 @@
       <c r="G69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" ht="18">
+      <c r="H69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="18">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="2:7" ht="18">
+    <row r="71" spans="2:8" ht="18">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="2:7" ht="18">
+    <row r="72" spans="2:8" ht="18">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="2:7" ht="18">
+    <row r="73" spans="2:8" ht="18">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:7" ht="18">
+    <row r="74" spans="2:8" ht="18">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:7" ht="18">
+    <row r="75" spans="2:8" ht="18">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:7" ht="18">
+    <row r="76" spans="2:8" ht="18">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="2:7" ht="18">
+    <row r="77" spans="2:8" ht="18">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="2:7" ht="18">
+    <row r="78" spans="2:8" ht="18">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="2:7" ht="18">
+    <row r="79" spans="2:8" ht="18">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="2:7" ht="18">
+    <row r="80" spans="2:8" ht="18">
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" ht="18">
